--- a/public/preprocessing/@corbuzier.xlsx
+++ b/public/preprocessing/@corbuzier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19950</v>
+        <v>32467</v>
       </c>
       <c r="C2" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ada tukang tepuuuuu</t>
+          <t>nah ini bod nya keliatan kalau mau yg ngerti suruh tukang catur bikin podcast yakin anda gak ngerti pod</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['ada', 'tukang', 'tepuuuuu']</t>
+          <t>['nah', 'ini', 'bod', 'nya', 'keliatan', 'kalau', 'mau', 'yg', 'ngerti', 'suruh', 'tukang', 'catur', 'bikin', 'podcast', 'yakin', 'anda', 'gak', 'ngerti', 'pod']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['nah', 'ini', 'bod', 'nya', 'kelihatan', 'kalau', 'mau', 'yang', 'mengerti', 'suruh', 'tukang', 'catur', 'bikin', 'podcast', 'yakin', 'anda', 'tidak', 'mengerti', 'pod']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['tukang', 'tepuuuuu']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['tukang', 'tepuuuuu']</t>
+          <t>['bod', 'mengerti', 'suruh', 'tukang', 'catur', 'podcast', 'mengerti', 'pod']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['bod', 'erti', 'suruh', 'tukang', 'catur', 'podcast', 'erti', 'pod']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19951</v>
+        <v>32468</v>
       </c>
       <c r="C3" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dear netizen buat pemula yang masih bingung dan belum ngerti tentang investasi saham atau crypto menurut gue</t>
+          <t>to help ur financial fit check this one out</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['dear', 'netizen', 'buat', 'pemula', 'yang', 'masih', 'bingung', 'dan', 'belum', 'ngerti', 'tentang', 'investasi', 'saham', 'atau', 'crypto', 'menurut', 'gue']</t>
+          <t>['to', 'help', 'ur', 'financial', 'fit', 'check', 'this', 'one', 'out']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['to', 'help', 'kamu', 'financial', 'fit', 'check', 'this', 'one', 'out']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['dear', 'netizen', 'pemula', 'bingung', 'ngerti', 'investasi', 'saham', 'crypto', 'gue']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dear', 'netizen', 'mula', 'bingung', 'ngerti', 'investasi', 'saham', 'crypto', 'gue']</t>
+          <t>['to', 'help', 'financial', 'fit', 'check', 'this', 'one', 'out']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['to', 'help', 'financial', 'fit', 'check', 'this', 'one', 'out']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19952</v>
+        <v>32469</v>
       </c>
       <c r="C4" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>penis</t>
+          <t>rt wujudkan kebebasan finansial kamu dan mulai sekarang dengan nyala ocbc nisp</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['penis']</t>
+          <t>['rt', 'wujudkan', 'kebebasan', 'finansial', 'kamu', 'dan', 'mulai', 'sekarang', 'dengan', 'nyala', 'ocbc', 'nisp']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'wujudkan', 'kebebasan', 'finansial', 'kamu', 'dan', 'mulai', 'sekarang', 'dengan', 'nyala', 'ocbc', 'nisp']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['penis']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['penis']</t>
+          <t>['wujudkan', 'kebebasan', 'finansial', 'nyala', 'ocbc', 'nisp']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['wujud', 'bebas', 'finansial', 'nyala', 'ocbc', 'nisp']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19953</v>
+        <v>32470</v>
       </c>
       <c r="C5" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>are  ready</t>
+          <t>dewa kipas menggelegardeddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['are', 'ready']</t>
+          <t>['dewa', 'kipas', 'menggelegardeddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['dewa', 'kipas', 'menggelegardeddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['are', 'ready']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['are', 'ready']</t>
+          <t>['dewa', 'kipas', 'menggelegardeddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['dewa', 'kipas', 'menggelegardeddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19954</v>
+        <v>32471</v>
       </c>
       <c r="C6" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>dasar anjing habib jafar deddy corbuzier podcast via</t>
+          <t>fans kpop anjhenx young lex deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['fans', 'kpop', 'anjhenx', 'young', 'lex', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['fan', 'korea, pop', 'anjhenx', 'young', 'lex', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['fan', 'korea, pop', 'anjhenx', 'young', 'lex', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['fan', 'korea pop', 'anjhenx', 'young', 'lex', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19955</v>
+        <v>32472</v>
       </c>
       <c r="C7" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fadlan holao bertanya pada tuhan deddy corbuzier podcast via</t>
+          <t>tag ini uus dong tolong</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['fadlan', 'holao', 'bertanya', 'pada', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['tag', 'ini', 'uus', 'dong', 'tolong']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['tag', 'ini', 'uus', 'dong', 'tolong']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['fadlan', 'holao', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['fadlan', 'holao', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['tag', 'uus', 'tolong']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['tag', 'uus', 'tolong']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19956</v>
+        <v>32473</v>
       </c>
       <c r="C8" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>have  watch this eps</t>
+          <t>serius nihuu ite fek lah coki pardede deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['have', 'watch', 'this', 'eps']</t>
+          <t>['serius', 'nihuu', 'ite', 'fek', 'lah', 'coki', 'pardede', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['serius', 'nihuu', 'informasi, transaksi, elektronik', 'fek', 'lah', 'coki', 'pardede', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['have', 'watch', 'this', 'eps']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['have', 'watch', 'this', 'eps']</t>
+          <t>['serius', 'nihuu', 'informasi, transaksi, elektronik', 'fek', 'coki', 'pardede', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['serius', 'nihuu', 'informasi transaksi elektronik', 'fek', 'cok', 'pardede', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19957</v>
+        <v>32474</v>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>agnez mo mantan ku ter deddy corbuzier podcast via</t>
+          <t xml:space="preserve">gini bro ini nih problemnya pengen kaya tapi instan cashflow masih seret tapi ngarep return saham </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['agnez', 'mo', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['gini', 'bro', 'ini', 'nih', 'problemnya', 'pengen', 'kaya', 'tapi', 'instan', 'cashflow', 'masih', 'seret', 'tapi', 'ngarep', 'return', 'saham']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['begini', 'bro', 'ini', 'nih', 'problemnya', 'ingin', 'kayak', 'tapi', 'instan', 'cashflow', 'masih', 'seret', 'tapi', 'mengharap', 'return', 'saham']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['agnez', 'mo', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['agnez', 'mo', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bro', 'problemnya', 'kayak', 'instan', 'cashflow', 'seret', 'mengharap', 'return', 'saham']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['bro', 'problem', 'kayak', 'instan', 'cashflow', 'seret', 'harap', 'return', 'saham']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19958</v>
+        <v>32475</v>
       </c>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>bpjs kemana saat covid deddy corbuzier podcast via</t>
+          <t>ini nih problemnya pengen kaya tapi instan cashflow masih seret tapi ngarep return saham al</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['bpjs', 'kemana', 'saat', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['ini', 'nih', 'problemnya', 'pengen', 'kaya', 'tapi', 'instan', 'cashflow', 'masih', 'seret', 'tapi', 'ngarep', 'return', 'saham', 'al']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ini', 'nih', 'problemnya', 'ingin', 'kayak', 'tapi', 'instan', 'cashflow', 'masih', 'seret', 'tapi', 'mengharap', 'return', 'saham', 'al']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['bpjs', 'kemana', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['bpjs', 'mana', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['problemnya', 'kayak', 'instan', 'cashflow', 'seret', 'mengharap', 'return', 'saham', 'al']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['problem', 'kayak', 'instan', 'cashflow', 'seret', 'harap', 'return', 'saham', 'al']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19959</v>
+        <v>32476</v>
       </c>
       <c r="C11" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>this is amazing</t>
+          <t>aldi taher chuaaaxz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['this', 'is', 'amazing']</t>
+          <t>['aldi', 'taher', 'chuaaaxz']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['aldi', 'taher', 'chuaaaxz']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['this', 'is', 'amazing']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['this', 'is', 'amazing']</t>
+          <t>['aldi', 'taher', 'chuaaaxz']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['aldi', 'taher', 'chuaaaxz']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19960</v>
+        <v>32477</v>
       </c>
       <c r="C12" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>bini uus kite unboxing deddy corbuzier podcast via</t>
+          <t>sadarkah bahwa karakter alpha anda miliki tunggu segera di</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['bini', 'uus', 'kite', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['sadarkah', 'bahwa', 'karakter', 'alpha', 'anda', 'miliki', 'tunggu', 'segera', 'di']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sadarkah', 'bahwa', 'karakter', 'alpha', 'anda', 'miliki', 'tunggu', 'segera', 'di']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['bini', 'uus', 'kite', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['bini', 'uus', 'kite', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['sadarkah', 'karakter', 'alpha', 'miliki', 'tunggu']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['sadar', 'karakter', 'alpha', 'milik', 'tunggu']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19961</v>
+        <v>32478</v>
       </c>
       <c r="C13" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>who is mister hu jadi kepo atau mmg produk kita kalah saing tambah kepo atau mmg ada hal lain</t>
+          <t>cek gaul anak twitter loe kenal ini siapa gak</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['who', 'is', 'mister', 'hu', 'jadi', 'kepo', 'atau', 'mmg', 'produk', 'kita', 'kalah', 'saing', 'tambah', 'kepo', 'atau', 'mmg', 'ada', 'hal', 'lain']</t>
+          <t>['cek', 'gaul', 'anak', 'twitter', 'loe', 'kenal', 'ini', 'siapa', 'gak']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['cek', 'gaul', 'anak', 'twitter', 'kamu', 'kenal', 'ini', 'siapa', 'tidak']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['who', 'is', 'mister', 'hu', 'kepo', 'mmg', 'produk', 'kalah', 'saing', 'kepo', 'mmg']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['who', 'is', 'mister', 'hu', 'kepo', 'mmg', 'produk', 'kalah', 'saing', 'kepo', 'mmg']</t>
+          <t>['cek', 'gaul', 'anak', 'twitter', 'kenal']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['cek', 'gaul', 'anak', 'twitter', 'kenal']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19962</v>
+        <v>32479</v>
       </c>
       <c r="C14" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>kita bongkar korupsi trilliun an via</t>
+          <t>ada tukang tepuuuuu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['kita', 'bongkar', 'korupsi', 'trilliun', 'an', 'via']</t>
+          <t>['ada', 'tukang', 'tepuuuuu']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ada', 'tukang', 'tepuuuuu']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['bongkar', 'korupsi', 'trilliun', 'an', 'via']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['bongkar', 'korupsi', 'trilliun', 'an', 'via']</t>
+          <t>['tukang', 'tepuuuuu']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['tukang', 'tepuuuuu']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19963</v>
+        <v>32480</v>
       </c>
       <c r="C15" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kita debat abis kpi</t>
+          <t>dear netizen buat pemula yang masih bingung dan belum ngerti tentang investasi saham atau crypto menurut gue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['kita', 'debat', 'abis', 'kpi']</t>
+          <t>['dear', 'netizen', 'buat', 'pemula', 'yang', 'masih', 'bingung', 'dan', 'belum', 'ngerti', 'tentang', 'investasi', 'saham', 'atau', 'crypto', 'menurut', 'gue']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['dear', 'warganet', 'buat', 'pemula', 'yang', 'masih', 'bingung', 'dan', 'belum', 'mengerti', 'tentang', 'investasi', 'saham', 'atau', 'crypto', 'menurut', 'gue']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['debat', 'abis', 'kpi']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['debat', 'abis', 'kpi']</t>
+          <t>['dear', 'warganet', 'pemula', 'bingung', 'mengerti', 'investasi', 'saham', 'crypto', 'gue']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['dear', 'warganet', 'mula', 'bingung', 'erti', 'investasi', 'saham', 'crypto', 'gue']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19964</v>
+        <v>32481</v>
       </c>
       <c r="C16" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>lupa nama pendakwah yg bangga nabrak anjing kmrn ya udah gw google aja anjing nah kan die nongol</t>
+          <t>penis</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['lupa', 'nama', 'pendakwah', 'yg', 'bangga', 'nabrak', 'anjing', 'kmrn', 'ya', 'udah', 'gw', 'google', 'aja', 'anjing', 'nah', 'kan', 'die', 'nongol']</t>
+          <t>['penis']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['penis']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['lupa', 'nama', 'pendakwah', 'bangga', 'nabrak', 'anjing', 'kmrn', 'udah', 'gw', 'google', 'anjing', 'die', 'nongol']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['lupa', 'nama', 'dakwah', 'bangga', 'nabrak', 'anjing', 'kmrn', 'udah', 'gw', 'google', 'anjing', 'die', 'nongol']</t>
+          <t>['penis']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['penis']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19965</v>
+        <v>32482</v>
       </c>
       <c r="C17" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>kmrn ada org blg liat anjing di jalan tabrak aje blom pernah nonton planet of the apes nih org kayanye</t>
+          <t>are  ready</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['kmrn', 'ada', 'org', 'blg', 'liat', 'anjing', 'di', 'jalan', 'tabrak', 'aje', 'blom', 'pernah', 'nonton', 'planet', 'of', 'the', 'apes', 'nih', 'org', 'kayanye']</t>
+          <t>['are', 'ready']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['are', 'ready']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kmrn', 'org', 'blg', 'liat', 'anjing', 'jalan', 'tabrak', 'aje', 'blom', 'nonton', 'planet', 'of', 'the', 'apes', 'org', 'kayanye']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kmrn', 'org', 'blg', 'liat', 'anjing', 'jalan', 'tabrak', 'aje', 'blom', 'nonton', 'planet', 'of', 'the', 'apes', 'org', 'kayanye']</t>
+          <t>['are', 'ready']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['are', 'ready']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19966</v>
+        <v>32483</v>
       </c>
       <c r="C18" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ampamp</t>
+          <t>dasar anjing habib jafar deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ampamp']</t>
+          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['ampamp']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['ampamp']</t>
+          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['dasar', 'anjing', 'habib', 'jafar', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19967</v>
+        <v>32484</v>
       </c>
       <c r="C19" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>indonesia yg asik tuh hrsnya adalah kaum tengahan gak kanan bgt ga kiri bgt kaum santuy</t>
+          <t>fadlan holao bertanya pada tuhan deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['indonesia', 'yg', 'asik', 'tuh', 'hrsnya', 'adalah', 'kaum', 'tengahan', 'gak', 'kanan', 'bgt', 'ga', 'kiri', 'bgt', 'kaum', 'santuy']</t>
+          <t>['fadlan', 'holao', 'bertanya', 'pada', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['fadlan', 'holao', 'bertanya', 'pada', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['indonesia', 'asik', 'hrsnya', 'kaum', 'tengahan', 'kanan', 'bgt', 'kiri', 'bgt', 'kaum', 'santuy']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['indonesia', 'asik', 'hrsnya', 'kaum', 'tengah', 'kanan', 'bgt', 'kiri', 'bgt', 'kaum', 'santuy']</t>
+          <t>['fadlan', 'holao', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['fadlan', 'holao', 'tuhan', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19968</v>
+        <v>32485</v>
       </c>
       <c r="C20" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sebelum loe semua main twitter nih raja nya twitter</t>
+          <t>have  watch this eps</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['sebelum', 'loe', 'semua', 'main', 'twitter', 'nih', 'raja', 'nya', 'twitter']</t>
+          <t>['have', 'watch', 'this', 'eps']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['have', 'watch', 'this', 'episode']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['loe', 'main', 'twitter', 'raja', 'twitter']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['loe', 'main', 'twitter', 'raja', 'twitter']</t>
+          <t>['have', 'watch', 'this', 'episode']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['have', 'watch', 'this', 'episode']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19969</v>
+        <v>32486</v>
       </c>
       <c r="C21" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>nanya kpi hello mas bro talkshow duduk jauh jauhan suruh pake masker nih sinetron kagak</t>
+          <t>agnez mo mantan ku ter deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['nanya', 'kpi', 'hello', 'mas', 'bro', 'talkshow', 'duduk', 'jauh', 'jauhan', 'suruh', 'pake', 'masker', 'nih', 'sinetron', 'kagak']</t>
+          <t>['agnez', 'mo', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['agnez', 'mau', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['nanya', 'kpi', 'hello', 'mas', 'bro', 'talkshow', 'duduk', 'jauhan', 'suruh', 'pake', 'masker', 'sinetron', 'kagak']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['nanya', 'kpi', 'hello', 'mas', 'bro', 'talkshow', 'duduk', 'jauh', 'suruh', 'pake', 'masker', 'sinetron', 'kagak']</t>
+          <t>['agnez', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['agnez', 'mantan', 'ku', 'ter', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19970</v>
+        <v>32487</v>
       </c>
       <c r="C22" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ini mah dongo deddy corbuzier podcast via</t>
+          <t>bpjs kemana saat covid deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['ini', 'mah', 'dongo', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bpjs', 'kemana', 'saat', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['badan, penyelenggara, jaminan, sosial', 'kemana', 'saat', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['mah', 'dongo', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['mah', 'dongo', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['badan, penyelenggara, jaminan, sosial', 'kemana', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['badan selenggara jamin sosial', 'mana', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19971</v>
+        <v>32488</v>
       </c>
       <c r="C23" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>the end deddy corbuzier podcast via</t>
+          <t>this is amazing</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['this', 'is', 'amazing']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['this', 'is', 'amazing']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['this', 'is', 'amazing']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'amazing']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19972</v>
+        <v>32489</v>
       </c>
       <c r="C24" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>papa ijinkan mama tuk poligami sumpah kaga ngerti lagi</t>
+          <t>bini uus kite unboxing deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['papa', 'ijinkan', 'mama', 'tuk', 'poligami', 'sumpah', 'kaga', 'ngerti', 'lagi']</t>
+          <t>['bini', 'uus', 'kite', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['bini', 'uus', 'kita', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['papa', 'ijinkan', 'mama', 'tuk', 'poligami', 'sumpah', 'kaga', 'ngerti']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['papa', 'ijinkan', 'mama', 'tuk', 'poligami', 'sumpah', 'kaga', 'ngerti']</t>
+          <t>['bini', 'uus', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['bini', 'uus', 'unboxing', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19973</v>
+        <v>32490</v>
       </c>
       <c r="C25" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cowo kok tas cewe ivan gunawancome back ps gw nunggu sjw kmrn yg ngatain gw anti feminists nyerang lagi</t>
+          <t>who is mister hu jadi kepo atau mmg produk kita kalah saing tambah kepo atau mmg ada hal lain</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['cowo', 'kok', 'tas', 'cewe', 'ivan', 'gunawancome', 'back', 'ps', 'gw', 'nunggu', 'sjw', 'kmrn', 'yg', 'ngatain', 'gw', 'anti', 'feminists', 'nyerang', 'lagi']</t>
+          <t>['who', 'is', 'mister', 'hu', 'jadi', 'kepo', 'atau', 'mmg', 'produk', 'kita', 'kalah', 'saing', 'tambah', 'kepo', 'atau', 'mmg', 'ada', 'hal', 'lain']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['who', 'is', 'mister', 'hu', 'jadi', 'ingin, tahu', 'atau', 'memang', 'produk', 'kita', 'kalah', 'saing', 'tambah', 'ingin, tahu', 'atau', 'memang', 'ada', 'hal', 'lain']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['cowo', 'tas', 'cewe', 'ivan', 'gunawancome', 'back', 'ps', 'gw', 'nunggu', 'sjw', 'kmrn', 'ngatain', 'gw', 'anti', 'feminists', 'nyerang']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['cowo', 'tas', 'cewe', 'ivan', 'gunawancome', 'back', 'ps', 'gw', 'nunggu', 'sjw', 'kmrn', 'ngatain', 'gw', 'anti', 'feminists', 'nyerang']</t>
+          <t>['who', 'is', 'mister', 'hu', 'ingin, tahu', 'produk', 'kalah', 'saing', 'ingin, tahu']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['who', 'is', 'mister', 'hu', 'ingin tahu', 'produk', 'kalah', 'saing', 'ingin tahu']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19974</v>
+        <v>32491</v>
       </c>
       <c r="C26" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>pak menteri anda bakal korupsi juga gak nih via</t>
+          <t>kita bongkar korupsi trilliun an via</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['pak', 'menteri', 'anda', 'bakal', 'korupsi', 'juga', 'gak', 'nih', 'via']</t>
+          <t>['kita', 'bongkar', 'korupsi', 'trilliun', 'an', 'via']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kita', 'bongkar', 'korupsi', 'triliun', 'an', 'via']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['menteri', 'korupsi', 'via']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['menteri', 'korupsi', 'via']</t>
+          <t>['bongkar', 'korupsi', 'triliun', 'an', 'via']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['bongkar', 'korupsi', 'triliun', 'an', 'via']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19975</v>
+        <v>32492</v>
       </c>
       <c r="C27" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>renatta moeloek kita lihat isi hp nya</t>
+          <t>kita debat abis kpi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['renatta', 'moeloek', 'kita', 'lihat', 'isi', 'hp', 'nya']</t>
+          <t>['kita', 'debat', 'abis', 'kpi']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kita', 'debat', 'habis', 'komisi, penyiaran, indonesia']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['renatta', 'moeloek', 'lihat', 'isi', 'hp']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['renatta', 'moeloek', 'lihat', 'isi', 'hp']</t>
+          <t>['debat', 'habis', 'komisi, penyiaran, indonesia']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['debat', 'habis', 'komisi siar indonesia']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19976</v>
+        <v>32493</v>
       </c>
       <c r="C28" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>abu janda hanya disini</t>
+          <t>lupa nama pendakwah yg bangga nabrak anjing kmrn ya udah gw google aja anjing nah kan die nongol</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['abu', 'janda', 'hanya', 'disini']</t>
+          <t>['lupa', 'nama', 'pendakwah', 'yg', 'bangga', 'nabrak', 'anjing', 'kmrn', 'ya', 'udah', 'gw', 'google', 'aja', 'anjing', 'nah', 'kan', 'die', 'nongol']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['lupa', 'nama', 'pendakwah', 'yang', 'bangga', 'menabrak', 'anjing', 'kemarin', 'ya', 'sudah', 'gue', 'google', 'saja', 'anjing', 'nah', 'kan', 'dia', 'nongol']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['abu', 'janda']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['abu', 'janda']</t>
+          <t>['lupa', 'nama', 'pendakwah', 'bangga', 'menabrak', 'anjing', 'kemarin', 'gue', 'google', 'anjing', 'nongol']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['lupa', 'nama', 'dakwah', 'bangga', 'tabrak', 'anjing', 'kemarin', 'gue', 'google', 'anjing', 'nongol']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19977</v>
+        <v>32494</v>
       </c>
       <c r="C29" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>gue lagi bingung sama konten creator baru baru yg pamer cuma kaya doang sedangkan jaman ini lagi banyak org yg bu</t>
+          <t>kmrn ada org blg liat anjing di jalan tabrak aje blom pernah nonton planet of the apes nih org kayanye</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['gue', 'lagi', 'bingung', 'sama', 'konten', 'creator', 'baru', 'baru', 'yg', 'pamer', 'cuma', 'kaya', 'doang', 'sedangkan', 'jaman', 'ini', 'lagi', 'banyak', 'org', 'yg', 'bu']</t>
+          <t>['kmrn', 'ada', 'org', 'blg', 'liat', 'anjing', 'di', 'jalan', 'tabrak', 'aje', 'blom', 'pernah', 'nonton', 'planet', 'of', 'the', 'apes', 'nih', 'org', 'kayanye']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['kemarin', 'ada', 'orang', 'bilang', 'lihat', 'anjing', 'di', 'jalan', 'tabrak', 'saja', 'belum', 'pernah', 'menonton', 'planet', 'of', 'the', 'apes', 'nih', 'orang', 'kayaknya']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['gue', 'bingung', 'konten', 'creator', 'pamer', 'kaya', 'doang', 'jaman', 'org', 'bu']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['gue', 'bingung', 'konten', 'creator', 'pamer', 'kaya', 'doang', 'jaman', 'org', 'bu']</t>
+          <t>['kemarin', 'orang', 'lihat', 'anjing', 'jalan', 'tabrak', 'menonton', 'planet', 'of', 'the', 'apes', 'orang', 'kayaknya']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['kemarin', 'orang', 'lihat', 'anjing', 'jalan', 'tabrak', 'tonton', 'planet', 'of', 'the', 'apes', 'orang', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19978</v>
+        <v>32495</v>
       </c>
       <c r="C30" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>oh chef renata</t>
+          <t>ampamp</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['oh', 'chef', 'renata']</t>
+          <t>['ampamp']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ampamp']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['oh', 'chef', 'renata']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['oh', 'chef', 'renata']</t>
+          <t>['ampamp']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['ampamp']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19979</v>
+        <v>32496</v>
       </c>
       <c r="C31" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>eiger butuh klarifikasi</t>
+          <t>indonesia yg asik tuh hrsnya adalah kaum tengahan gak kanan bgt ga kiri bgt kaum santuy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['eiger', 'butuh', 'klarifikasi']</t>
+          <t>['indonesia', 'yg', 'asik', 'tuh', 'hrsnya', 'adalah', 'kaum', 'tengahan', 'gak', 'kanan', 'bgt', 'ga', 'kiri', 'bgt', 'kaum', 'santuy']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['indonesia', 'yang', 'asyik', 'itu', 'seharusnya', 'adalah', 'kaum', 'tengahan', 'tidak', 'kanan', 'banget', 'tidak', 'kiri', 'banget', 'kaum', 'santuy']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['eiger', 'butuh', 'klarifikasi']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['eiger', 'butuh', 'klarifikasi']</t>
+          <t>['indonesia', 'asyik', 'kaum', 'tengahan', 'kanan', 'banget', 'kiri', 'banget', 'kaum', 'santuy']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['indonesia', 'asyik', 'kaum', 'tengah', 'kanan', 'banget', 'kiri', 'banget', 'kaum', 'santuy']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19980</v>
+        <v>32497</v>
       </c>
       <c r="C32" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>kakek koswara dan manusia biadab</t>
+          <t>sebelum loe semua main twitter nih raja nya twitter</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['kakek', 'koswara', 'dan', 'manusia', 'biadab']</t>
+          <t>['sebelum', 'loe', 'semua', 'main', 'twitter', 'nih', 'raja', 'nya', 'twitter']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sebelum', 'kamu', 'semua', 'main', 'twitter', 'nih', 'raja', 'nya', 'twitter']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['kakek', 'koswara', 'manusia', 'biadab']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['kakek', 'koswara', 'manusia', 'biadab']</t>
+          <t>['main', 'twitter', 'raja', 'twitter']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['main', 'twitter', 'raja', 'twitter']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19981</v>
+        <v>32498</v>
       </c>
       <c r="C33" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ada yg tau cerita kakek koswara bisa info  need this for podcast thank  all</t>
+          <t>nanya kpi hello mas bro talkshow duduk jauh jauhan suruh pake masker nih sinetron kagak</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ada', 'yg', 'tau', 'cerita', 'kakek', 'koswara', 'bisa', 'info', 'need', 'this', 'for', 'podcast', 'thank', 'all']</t>
+          <t>['nanya', 'kpi', 'hello', 'mas', 'bro', 'talkshow', 'duduk', 'jauh', 'jauhan', 'suruh', 'pake', 'masker', 'nih', 'sinetron', 'kagak']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bertanya', 'komisi, penyiaran, indonesia', 'halo', 'mas', 'bro', 'talkshow', 'duduk', 'jauh', 'jauhan', 'suruh', 'pakai', 'masker', 'nih', 'sinetron', 'tidak']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['cerita', 'kakek', 'koswara', 'info', 'need', 'this', 'for', 'podcast', 'thank', 'all']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['cerita', 'kakek', 'koswara', 'info', 'need', 'this', 'for', 'podcast', 'thank', 'all']</t>
+          <t>['komisi, penyiaran, indonesia', 'halo', 'mas', 'bro', 'talkshow', 'duduk', 'jauhan', 'suruh', 'pakai', 'masker', 'sinetron']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['komisi siar indonesia', 'halo', 'mas', 'bro', 'talkshow', 'duduk', 'jauh', 'suruh', 'pakai', 'masker', 'sinetron']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19982</v>
+        <v>32499</v>
       </c>
       <c r="C34" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vaksin bisa gedein pens drtirta deddy corbuzier podcast via</t>
+          <t>ini mah dongo deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['vaksin', 'bisa', 'gedein', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['ini', 'mah', 'dongo', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ini', 'adalah', 'dongok', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['vaksin', 'gedein', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['vaksin', 'gedein', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['dongok', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['dongok', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19983</v>
+        <v>32500</v>
       </c>
       <c r="C35" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>mbak you loe makin ngaco sakit jiwa deddy corbuzier podcast via</t>
+          <t>the end deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['mbak', 'you', 'loe', 'makin', 'ngaco', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['mbak', 'you', 'loe', 'ngaco', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['mbak', 'you', 'loe', 'ngaco', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['the', 'end', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19984</v>
+        <v>32501</v>
       </c>
       <c r="C36" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pasangan lesbian di intm yumi amp chika deddy corbuzier podcast via</t>
+          <t>papa ijinkan mama tuk poligami sumpah kaga ngerti lagi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['pasangan', 'lesbian', 'di', 'intm', 'yumi', 'amp', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['papa', 'ijinkan', 'mama', 'tuk', 'poligami', 'sumpah', 'kaga', 'ngerti', 'lagi']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['papa', 'izinkan', 'mama', 'untuk', 'poligami', 'sumpah', 'tidak', 'mengerti', 'lagi']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['pasangan', 'lesbian', 'intm', 'yumi', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['pasang', 'lesbian', 'intm', 'yumi', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['papa', 'izinkan', 'mama', 'poligami', 'sumpah', 'mengerti']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['papa', 'izin', 'mama', 'poligami', 'sumpah', 'erti']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19985</v>
+        <v>32502</v>
       </c>
       <c r="C37" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pandji cinta fpi gue yang pusing marah bela nu deddy corbuzier podcast via</t>
+          <t>cowo kok tas cewe ivan gunawancome back ps gw nunggu sjw kmrn yg ngatain gw anti feminists nyerang lagi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['pandji', 'cinta', 'fpi', 'gue', 'yang', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['cowo', 'kok', 'tas', 'cewe', 'ivan', 'gunawancome', 'back', 'ps', 'gw', 'nunggu', 'sjw', 'kmrn', 'yg', 'ngatain', 'gw', 'anti', 'feminists', 'nyerang', 'lagi']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['cowok', 'kok', 'tas', 'cewek', 'ivan', 'gunawancome', 'back', 'play, station', 'gue', 'menunggu', 'sjw', 'kemarin', 'yang', 'memaki', 'gue', 'anti', 'feminists', 'menyerang', 'lagi']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['pandji', 'cinta', 'fpi', 'gue', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['pandji', 'cinta', 'fpi', 'gue', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['cowok', 'tas', 'cewek', 'ivan', 'gunawancome', 'back', 'play, station', 'gue', 'menunggu', 'sjw', 'kemarin', 'memaki', 'gue', 'anti', 'feminists', 'menyerang']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['cowok', 'tas', 'cewek', 'ivan', 'gunawancome', 'back', 'play station', 'gue', 'tunggu', 'sjw', 'kemarin', 'maki', 'gue', 'anti', 'feminists', 'serang']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19986</v>
+        <v>32503</v>
       </c>
       <c r="C38" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kurus no mampus yang ada kita bongkar penipuan obat richard  via</t>
+          <t>pak menteri anda bakal korupsi juga gak nih via</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kurus', 'no', 'mampus', 'yang', 'ada', 'kita', 'bongkar', 'penipuan', 'obat', 'richard', 'via']</t>
+          <t>['pak', 'menteri', 'anda', 'bakal', 'korupsi', 'juga', 'gak', 'nih', 'via']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['pak', 'menteri', 'anda', 'bakal', 'korupsi', 'juga', 'tidak', 'nih', 'via']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kurus', 'no', 'mampus', 'bongkar', 'penipuan', 'obat', 'richard', 'via']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kurus', 'no', 'mampus', 'bongkar', 'tipu', 'obat', 'richard', 'via']</t>
+          <t>['menteri', 'korupsi', 'via']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['menteri', 'korupsi', 'via']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19987</v>
+        <v>32504</v>
       </c>
       <c r="C39" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>raffi ahmad ini bahaya komisaris bei buka suara deddy corbuzier via</t>
+          <t>renatta moeloek kita lihat isi hp nya</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['raffi', 'ahmad', 'ini', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
+          <t>['renatta', 'moeloek', 'kita', 'lihat', 'isi', 'hp', 'nya']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['renatta', 'moeloek', 'kita', 'lihat', 'isi', 'handphone', 'nya']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['raffi', 'ahmad', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['raffi', 'ahmad', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
+          <t>['renatta', 'moeloek', 'lihat', 'isi', 'handphone']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['renatta', 'moeloek', 'lihat', 'isi', 'handphone']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19988</v>
+        <v>32505</v>
       </c>
       <c r="C40" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>konspirasi segitiga dunia dan kopid atau cuma halu mardigu bossman via</t>
+          <t>abu janda hanya disini</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['konspirasi', 'segitiga', 'dunia', 'dan', 'kopid', 'atau', 'cuma', 'halu', 'mardigu', 'bossman', 'via']</t>
+          <t>['abu', 'janda', 'hanya', 'disini']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['abu', 'janda', 'hanya', 'di, sini']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['konspirasi', 'segitiga', 'dunia', 'kopid', 'halu', 'mardigu', 'bossman', 'via']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['konspirasi', 'segitiga', 'dunia', 'kopid', 'halu', 'mardigu', 'bossman', 'via']</t>
+          <t>['abu', 'janda', 'di, sini']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['abu', 'janda', 'di sini']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19989</v>
+        <v>32506</v>
       </c>
       <c r="C41" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>dear my beloved government there are types of influencer those whos base on fame and base on value  think</t>
+          <t>gue lagi bingung sama konten creator baru baru yg pamer cuma kaya doang sedangkan jaman ini lagi banyak org yg bu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
+          <t>['gue', 'lagi', 'bingung', 'sama', 'konten', 'creator', 'baru', 'baru', 'yg', 'pamer', 'cuma', 'kaya', 'doang', 'sedangkan', 'jaman', 'ini', 'lagi', 'banyak', 'org', 'yg', 'bu']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['gue', 'lagi', 'bingung', 'sama', 'konten', 'creator', 'baru', 'baru', 'yang', 'pamer', 'cuma', 'kayak', 'doang', 'sedangkan', 'jaman', 'ini', 'lagi', 'banyak', 'orang', 'yang', 'bu']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
+          <t>['gue', 'bingung', 'konten', 'creator', 'pamer', 'kayak', 'doang', 'jaman', 'orang', 'bu']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['gue', 'bingung', 'konten', 'creator', 'pamer', 'kayak', 'doang', 'jaman', 'orang', 'bu']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19990</v>
+        <v>32507</v>
       </c>
       <c r="C42" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>nadin amizah cantik nya kamu deddy corbuzier podcast via</t>
+          <t>oh chef renata</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['nadin', 'amizah', 'cantik', 'nya', 'kamu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['oh', 'chef', 'renata']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['oh', 'chef', 'renata']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['nadin', 'amizah', 'cantik', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['nadin', 'amizah', 'cantik', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['oh', 'chef', 'renata']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['oh', 'chef', 'renata']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19991</v>
+        <v>32508</v>
       </c>
       <c r="C43" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>fpi habis sudah bongkar gerak maut mahfud md exclusive deddy cor via</t>
+          <t>eiger butuh klarifikasi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['fpi', 'habis', 'sudah', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
+          <t>['eiger', 'butuh', 'klarifikasi']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['eiger', 'butuh', 'klarifikasi']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['fpi', 'habis', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['fpi', 'habis', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
+          <t>['eiger', 'butuh', 'klarifikasi']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['eiger', 'butuh', 'klarifikasi']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19992</v>
+        <v>32509</v>
       </c>
       <c r="C44" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jason ranti nani masal deddy corbuzier podcast via</t>
+          <t>kakek koswara dan manusia biadab</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['jason', 'ranti', 'nani', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['kakek', 'koswara', 'dan', 'manusia', 'biadab']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kakek', 'koswara', 'dan', 'manusia', 'biadab']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['jason', 'ranti', 'nani', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['jason', 'ranti', 'nan', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['kakek', 'koswara', 'manusia', 'biadab']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['kakek', 'koswara', 'manusia', 'biadab']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19993</v>
+        <v>32510</v>
       </c>
       <c r="C45" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>fpi bukan urusan negara lain menlu reno marsudi bicara deddy corbuz via</t>
+          <t>ada yg tau cerita kakek koswara bisa info  need this for podcast thank  all</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['fpi', 'bukan', 'urusan', 'negara', 'lain', 'menlu', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
+          <t>['ada', 'yg', 'tau', 'cerita', 'kakek', 'koswara', 'bisa', 'info', 'need', 'this', 'for', 'podcast', 'thank', 'all']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['ada', 'yang', 'tau', 'cerita', 'kakek', 'koswara', 'bisa', 'info', 'need', 'this', 'for', 'podcast', 'terima, kasih', 'all']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['fpi', 'urusan', 'negara', 'menlu', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['fpi', 'urus', 'negara', 'menlu', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
+          <t>['cerita', 'kakek', 'koswara', 'info', 'need', 'this', 'for', 'podcast', 'terima, kasih', 'all']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['cerita', 'kakek', 'koswara', 'info', 'need', 'this', 'for', 'podcast', 'terima kasih', 'all']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19994</v>
+        <v>32511</v>
       </c>
       <c r="C46" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>buka hijab kita sikat habib tersesat ke podcast habib husein jafar via</t>
+          <t>vaksin bisa gedein pens drtirta deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['buka', 'hijab', 'kita', 'sikat', 'habib', 'tersesat', 'ke', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
+          <t>['vaksin', 'bisa', 'gedein', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['vaksin', 'bisa', 'gedekan', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['buka', 'hijab', 'sikat', 'habib', 'tersesat', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['buka', 'hijab', 'sikat', 'habib', 'sesat', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
+          <t>['vaksin', 'gedekan', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['vaksin', 'gede', 'pens', 'drtirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19995</v>
+        <v>32512</v>
       </c>
       <c r="C47" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ada dusta dalam covid akhirnya drtompi bicara deddy corbuzier po via</t>
+          <t>mbak you loe makin ngaco sakit jiwa deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['ada', 'dusta', 'dalam', 'covid', 'akhirnya', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
+          <t>['mbak', 'you', 'loe', 'makin', 'ngaco', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['mbak', 'kamu', 'kamu', 'makin', 'kacau', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['dusta', 'covid', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['dusta', 'covid', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
+          <t>['mbak', 'kacau', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['mbak', 'kacau', 'sakit', 'jiwa', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19996</v>
+        <v>32513</v>
       </c>
       <c r="C48" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>bersorban di bilang teroris via</t>
+          <t>pasangan lesbian di intm yumi amp chika deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['bersorban', 'di', 'bilang', 'teroris', 'via']</t>
+          <t>['pasangan', 'lesbian', 'di', 'intm', 'yumi', 'amp', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pasangan', 'lesbian', 'di', 'intm', 'yumi', 'amp', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['bersorban', 'teroris', 'via']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['sorban', 'teroris', 'via']</t>
+          <t>['pasangan', 'lesbian', 'intm', 'yumi', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['pasang', 'lesbian', 'intm', 'yumi', 'chika', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19997</v>
+        <v>32514</v>
       </c>
       <c r="C49" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>kami bubarkan podcast podkesmas deddy corbuzier podcast via</t>
+          <t>pandji cinta fpi gue yang pusing marah bela nu deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['kami', 'bubarkan', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['pandji', 'cinta', 'fpi', 'gue', 'yang', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['panji', 'cinta', 'front, pembela, islam', 'gue', 'yang', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['bubarkan', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['bubar', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['panji', 'cinta', 'front, pembela, islam', 'gue', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['panji', 'cinta', 'front bela islam', 'gue', 'pusing', 'marah', 'bela', 'nu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19998</v>
+        <v>32515</v>
       </c>
       <c r="C50" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>botak tiktok vs tket via</t>
+          <t>kurus no mampus yang ada kita bongkar penipuan obat richard  via</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['botak', 'tiktok', 'vs', 'tket', 'via']</t>
+          <t>['kurus', 'no', 'mampus', 'yang', 'ada', 'kita', 'bongkar', 'penipuan', 'obat', 'richard', 'via']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kurus', 'no', 'mampus', 'yang', 'ada', 'kita', 'bongkar', 'penipuan', 'obat', 'richard', 'via']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['botak', 'tiktok', 'vs', 'tket', 'via']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['botak', 'tiktok', 'vs', 'tket', 'via']</t>
+          <t>['kurus', 'no', 'mampus', 'bongkar', 'penipuan', 'obat', 'richard', 'via']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['kurus', 'no', 'mampus', 'bongkar', 'tipu', 'obat', 'richard', 'via']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19999</v>
+        <v>32516</v>
       </c>
       <c r="C51" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sujiwo tejo kok dia pulang konspirasi deddy corbuzier podcast via</t>
+          <t>raffi ahmad ini bahaya komisaris bei buka suara deddy corbuzier via</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['sujiwo', 'tejo', 'kok', 'dia', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['raffi', 'ahmad', 'ini', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['raffi', 'ahmad', 'ini', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['sujiwo', 'tejo', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['sujiwo', 'tejo', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['raffi', 'ahmad', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['raffi', 'ahmad', 'bahaya', 'komisaris', 'bei', 'buka', 'suara', 'deddy', 'corbuzier', 'via']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20000</v>
+        <v>32517</v>
       </c>
       <c r="C52" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>milliar penonton di tahun adalah pencapaian yang tak akan terjadi tanpa kalian ur the best so than</t>
+          <t>konspirasi segitiga dunia dan kopid atau cuma halu mardigu bossman via</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['milliar', 'penonton', 'di', 'tahun', 'adalah', 'pencapaian', 'yang', 'tak', 'akan', 'terjadi', 'tanpa', 'kalian', 'ur', 'the', 'best', 'so', 'than']</t>
+          <t>['konspirasi', 'segitiga', 'dunia', 'dan', 'kopid', 'atau', 'cuma', 'halu', 'mardigu', 'bossman', 'via']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['konspirasi', 'segitiga', 'dunia', 'dan', 'kopid', 'atau', 'cuma', 'halu', 'mardigu', 'bossman', 'via']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['milliar', 'penonton', 'pencapaian', 'ur', 'the', 'best', 'so', 'than']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['milliar', 'tonton', 'capai', 'ur', 'the', 'best', 'so', 'than']</t>
+          <t>['konspirasi', 'segitiga', 'dunia', 'kopid', 'halu', 'mardigu', 'bossman', 'via']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['konspirasi', 'segitiga', 'dunia', 'kopid', 'halu', 'mardigu', 'bossman', 'via']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20001</v>
+        <v>32518</v>
       </c>
       <c r="C53" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>open bo on close the door diana dee starlight deddy corbuzier podcast via</t>
+          <t>dear my beloved government there are types of influencer those whos base on fame and base on value  think</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'diana', 'dee', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'diana', 'dee', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'ana', 'dee', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['dear', 'my', 'beloved', 'government', 'there', 'are', 'types', 'of', 'influencer', 'those', 'whos', 'base', 'on', 'fame', 'and', 'base', 'on', 'value', 'think']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20002</v>
+        <v>32519</v>
       </c>
       <c r="C54" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>selamat natal buat yang merayakan nya lengkap nya di</t>
+          <t>nadin amizah cantik nya kamu deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['selamat', 'natal', 'buat', 'yang', 'merayakan', 'nya', 'lengkap', 'nya', 'di']</t>
+          <t>['nadin', 'amizah', 'cantik', 'nya', 'kamu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['nadin', 'amizah', 'cantik', 'nya', 'kamu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['selamat', 'natal', 'merayakan', 'lengkap']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['selamat', 'natal', 'raya', 'lengkap']</t>
+          <t>['nadin', 'amizah', 'cantik', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['nadin', 'amizah', 'cantik', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20003</v>
+        <v>32520</v>
       </c>
       <c r="C55" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>natalan bareng penista coki pardede tretan muslim deddy corbuzi via</t>
+          <t>fpi habis sudah bongkar gerak maut mahfud md exclusive deddy cor via</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['natalan', 'bareng', 'penista', 'coki', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
+          <t>['fpi', 'habis', 'sudah', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['front, pembela, islam', 'habis', 'sudah', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['natalan', 'bareng', 'penista', 'coki', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['natal', 'bareng', 'nista', 'cok', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
+          <t>['front, pembela, islam', 'habis', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['front bela islam', 'habis', 'bongkar', 'gerak', 'maut', 'mahfud', 'md', 'exclusive', 'deddy', 'cor', 'via']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20004</v>
+        <v>32521</v>
       </c>
       <c r="C56" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kenalin cewe cutbray ngerti dong deddy corbuzier podcast via</t>
+          <t>jason ranti nani masal deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kenalin', 'cewe', 'cutbray', 'ngerti', 'dong', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['jason', 'ranti', 'nani', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['jason', 'ranti', 'nani', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['kenalin', 'cewe', 'cutbray', 'ngerti', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kenalin', 'cewe', 'cutbray', 'ngerti', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['jason', 'ranti', 'nani', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['jason', 'ranti', 'nan', 'masal', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20005</v>
+        <v>32522</v>
       </c>
       <c r="C57" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>sujiwo tejo ada cebong yang kampret banget deddy corbuzier podcast via</t>
+          <t>fpi bukan urusan negara lain menlu reno marsudi bicara deddy corbuz via</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['sujiwo', 'tejo', 'ada', 'cebong', 'yang', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['fpi', 'bukan', 'urusan', 'negara', 'lain', 'menlu', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['front, pembela, islam', 'bukan', 'urusan', 'negara', 'lain', 'menteri, luar, negeri', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['sujiwo', 'tejo', 'cebong', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['sujiwo', 'tejo', 'cebong', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['front, pembela, islam', 'urusan', 'negara', 'menteri, luar, negeri', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['front bela islam', 'urus', 'negara', 'menteri luar negeri', 'reno', 'marsudi', 'bicara', 'deddy', 'corbuz', 'via']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20006</v>
+        <v>32523</v>
       </c>
       <c r="C58" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gue doyan di liatin nikita mirzani deddy corbuzier podcast via</t>
+          <t>buka hijab kita sikat habib tersesat ke podcast habib husein jafar via</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['gue', 'doyan', 'di', 'liatin', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['buka', 'hijab', 'kita', 'sikat', 'habib', 'tersesat', 'ke', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['buka', 'hijab', 'kita', 'sikat', 'habib', 'tersesat', 'ke', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['gue', 'doyan', 'liatin', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['gue', 'doyan', 'liatin', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['buka', 'hijab', 'sikat', 'habib', 'tersesat', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['buka', 'hijab', 'sikat', 'habib', 'sesat', 'podcast', 'habib', 'husein', 'jafar', 'via']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20007</v>
+        <v>32524</v>
       </c>
       <c r="C59" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>chritine hakim diantara ribut agama covid dan indonesia deddy corbuzi via</t>
+          <t>ada dusta dalam covid akhirnya drtompi bicara deddy corbuzier po via</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['chritine', 'hakim', 'diantara', 'ribut', 'agama', 'covid', 'dan', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
+          <t>['ada', 'dusta', 'dalam', 'covid', 'akhirnya', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['ada', 'dusta', 'dalam', 'covid', 'akhirnya', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['chritine', 'hakim', 'ribut', 'agama', 'covid', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['chritine', 'hakim', 'ribut', 'agama', 'covid', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
+          <t>['dusta', 'covid', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['dusta', 'covid', 'drtompi', 'bicara', 'deddy', 'corbuzier', 'po', 'via']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20008</v>
+        <v>32525</v>
       </c>
       <c r="C60" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>khusus cewe jagoan ke podcast deddy corbuzier podcast via</t>
+          <t>bersorban di bilang teroris via</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['khusus', 'cewe', 'jagoan', 'ke', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bersorban', 'di', 'bilang', 'teroris', 'via']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['bersorban', 'di', 'bilang', 'teroris', 'via']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['khusus', 'cewe', 'jagoan', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['khusus', 'cewe', 'jago', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bersorban', 'teroris', 'via']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['sorban', 'teroris', 'via']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20009</v>
+        <v>32526</v>
       </c>
       <c r="C61" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>tag ah suntik vaksin berani ga loe duluan dr tirta deddy corbuzier podcast via</t>
+          <t>kami bubarkan podcast podkesmas deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'ga', 'loe', 'duluan', 'dr', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['kami', 'bubarkan', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kami', 'bubarkan', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'loe', 'duluan', 'dr', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'loe', 'duluan', 'dr', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bubarkan', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['bubar', 'podcast', 'podkesmas', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20010</v>
+        <v>32527</v>
       </c>
       <c r="C62" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>agnez oh agnez deddy corbuzier podcast via</t>
+          <t>botak tiktok vs tket via</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['botak', 'tiktok', 'vs', 'tket', 'via']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['botak', 'tiktok', 'lawan', 'tket', 'via']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['botak', 'tiktok', 'lawan', 'tket', 'via']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['botak', 'tiktok', 'lawan', 'tket', 'via']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20011</v>
+        <v>32528</v>
       </c>
       <c r="C63" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>kalau ini panco nya ngeri ngeri sedap but thank  ayah for all the attention he help me lots in my back inju</t>
+          <t>sujiwo tejo kok dia pulang konspirasi deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['kalau', 'ini', 'panco', 'nya', 'ngeri', 'ngeri', 'sedap', 'but', 'thank', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
+          <t>['sujiwo', 'tejo', 'kok', 'dia', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['sujiwo', 'tejo', 'kok', 'dia', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['panco', 'ngeri', 'ngeri', 'sedap', 'but', 'thank', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['panco', 'ngeri', 'ngeri', 'sedap', 'but', 'thank', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
+          <t>['sujiwo', 'tejo', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['sujiwo', 'tejo', 'pulang', 'konspirasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20012</v>
+        <v>32529</v>
       </c>
       <c r="C64" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>kena azab pingsan di podcast deddy corbuzier podcast  pandji pragiwaksono via</t>
+          <t>milliar penonton di tahun adalah pencapaian yang tak akan terjadi tanpa kalian ur the best so than</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kena', 'azab', 'pingsan', 'di', 'podcast', 'deddy', 'corbuzier', 'podcast', 'pandji', 'pragiwaksono', 'via']</t>
+          <t>['milliar', 'penonton', 'di', 'tahun', 'adalah', 'pencapaian', 'yang', 'tak', 'akan', 'terjadi', 'tanpa', 'kalian', 'ur', 'the', 'best', 'so', 'than']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['milliar', 'penonton', 'di', 'tahun', 'adalah', 'pencapaian', 'yang', 'tak', 'akan', 'terjadi', 'tanpa', 'kalian', 'kamu', 'the', 'best', 'sok', 'tahan']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['kena', 'azab', 'pingsan', 'podcast', 'deddy', 'corbuzier', 'podcast', 'pandji', 'pragiwaksono', 'via']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['kena', 'azab', 'pingsan', 'podcast', 'deddy', 'corbuzier', 'podcast', 'pandji', 'pragiwaksono', 'via']</t>
+          <t>['milliar', 'penonton', 'pencapaian', 'the', 'best', 'sok', 'tahan']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['milliar', 'tonton', 'capai', 'the', 'best', 'sok', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20013</v>
+        <v>32530</v>
       </c>
       <c r="C65" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>hahaha sok pak ernest duluan gue percaya covid ada virus nya tapi gue terakhir ga ap</t>
+          <t>open bo on close the door diana dee starlight deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['hahaha', 'sok', 'pak', 'ernest', 'duluan', 'gue', 'percaya', 'covid', 'ada', 'virus', 'nya', 'tapi', 'gue', 'terakhir', 'ga', 'ap']</t>
+          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'diana', 'dee', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'diana', 'adik', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['hahaha', 'sok', 'ernest', 'duluan', 'gue', 'percaya', 'covid', 'virus', 'gue', 'ap']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['hahaha', 'sok', 'ernest', 'duluan', 'gue', 'percaya', 'covid', 'virus', 'gue', 'ap']</t>
+          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'diana', 'adik', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['open', 'bo', 'on', 'close', 'the', 'door', 'ana', 'adik', 'starlight', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20014</v>
+        <v>32531</v>
       </c>
       <c r="C66" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>siaaaaaap</t>
+          <t>selamat natal buat yang merayakan nya lengkap nya di</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['siaaaaaap']</t>
+          <t>['selamat', 'natal', 'buat', 'yang', 'merayakan', 'nya', 'lengkap', 'nya', 'di']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['selamat', 'natal', 'buat', 'yang', 'merayakan', 'nya', 'lengkap', 'nya', 'di']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['siaaaaaap']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['siaaaaaap']</t>
+          <t>['selamat', 'natal', 'merayakan', 'lengkap']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['selamat', 'natal', 'raya', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20015</v>
+        <v>32532</v>
       </c>
       <c r="C67" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>saya nunggu dimasakin steak thank you for the dinner last night</t>
+          <t>natalan bareng penista coki pardede tretan muslim deddy corbuzi via</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['saya', 'nunggu', 'dimasakin', 'steak', 'thank', 'you', 'for', 'the', 'dinner', 'last', 'night']</t>
+          <t>['natalan', 'bareng', 'penista', 'coki', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['natalan', 'bareng', 'penista', 'coki', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['nunggu', 'dimasakin', 'steak', 'thank', 'you', 'for', 'the', 'dinner', 'last', 'night']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['nunggu', 'dimasakin', 'steak', 'thank', 'you', 'for', 'the', 'dinner', 'last', 'night']</t>
+          <t>['natalan', 'bareng', 'penista', 'coki', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['natal', 'bareng', 'nista', 'cok', 'pardede', 'tretan', 'muslim', 'deddy', 'corbuzi', 'via']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20016</v>
+        <v>32533</v>
       </c>
       <c r="C68" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>halo fpi nekat stafsus presiden akhirnya bicaradiaz hendropriyono via</t>
+          <t>kenalin cewe cutbray ngerti dong deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['halo', 'fpi', 'nekat', 'stafsus', 'presiden', 'akhirnya', 'bicaradiaz', 'hendropriyono', 'via']</t>
+          <t>['kenalin', 'cewe', 'cutbray', 'ngerti', 'dong', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['mengenalkan', 'cewek', 'cutbray', 'mengerti', 'dong', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['halo', 'fpi', 'nekat', 'stafsus', 'presiden', 'bicaradiaz', 'hendropriyono', 'via']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['halo', 'fpi', 'nekat', 'stafsus', 'presiden', 'bicaradiaz', 'hendropriyono', 'via']</t>
+          <t>['mengenalkan', 'cewek', 'cutbray', 'mengerti', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['kenal', 'cewek', 'cutbray', 'erti', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20017</v>
+        <v>32534</v>
       </c>
       <c r="C69" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>bule cantik ini bilang muslim itu trris trus mualaf deddy corbuzie via</t>
+          <t>sujiwo tejo ada cebong yang kampret banget deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['bule', 'cantik', 'ini', 'bilang', 'muslim', 'itu', 'trris', 'trus', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
+          <t>['sujiwo', 'tejo', 'ada', 'cebong', 'yang', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['sujiwo', 'tejo', 'ada', 'cebong', 'yang', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['bule', 'cantik', 'muslim', 'trris', 'trus', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['bule', 'cantik', 'muslim', 'trris', 'trus', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
+          <t>['sujiwo', 'tejo', 'cebong', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['sujiwo', 'tejo', 'cebong', 'kampret', 'banget', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20018</v>
+        <v>32535</v>
       </c>
       <c r="C70" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ngudut bareng gofar hilman deddy corbuzier podcast via</t>
+          <t>gue doyan di liatin nikita mirzani deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['gue', 'doyan', 'di', 'liatin', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['gue', 'suka', 'di', 'lihat', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['gue', 'suka', 'lihat', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['gue', 'suka', 'lihat', 'nikita', 'mirzani', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20019</v>
+        <v>32536</v>
       </c>
       <c r="C71" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dalam keadaan seperti ini indonesia saatnya kita menahan diri kecuali tuk sebuah kebaikan kalau kita tidak bisa</t>
+          <t>chritine hakim diantara ribut agama covid dan indonesia deddy corbuzi via</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['dalam', 'keadaan', 'seperti', 'ini', 'indonesia', 'saatnya', 'kita', 'menahan', 'diri', 'kecuali', 'tuk', 'sebuah', 'kebaikan', 'kalau', 'kita', 'tidak', 'bisa']</t>
+          <t>['chritine', 'hakim', 'diantara', 'ribut', 'agama', 'covid', 'dan', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['chritine', 'hakim', 'diantara', 'ribut', 'agama', 'covid', 'dan', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['indonesia', 'menahan', 'kecuali', 'tuk', 'kebaikan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['indonesia', 'tahan', 'kecuali', 'tuk', 'baik']</t>
+          <t>['chritine', 'hakim', 'ribut', 'agama', 'covid', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['chritine', 'hakim', 'ribut', 'agama', 'covid', 'indonesia', 'deddy', 'corbuzi', 'via']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20020</v>
+        <v>32537</v>
       </c>
       <c r="C72" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kalau gw di kasih sama darto milih  atau gal gadot gw langsung embat gal gadot gw ga punya gal gadot deddy corbuzier</t>
+          <t>khusus cewe jagoan ke podcast deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['kalau', 'gw', 'di', 'kasih', 'sama', 'darto', 'milih', 'atau', 'gal', 'gadot', 'gw', 'langsung', 'embat', 'gal', 'gadot', 'gw', 'ga', 'punya', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
+          <t>['khusus', 'cewe', 'jagoan', 'ke', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 22 outcomes&gt;</t>
+          <t>['khusus', 'cewek', 'jagoan', 'ke', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['gw', 'kasih', 'darto', 'milih', 'gal', 'gadot', 'gw', 'langsung', 'embat', 'gal', 'gadot', 'gw', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['gw', 'kasih', 'darto', 'milih', 'gal', 'gadot', 'gw', 'langsung', 'embat', 'gal', 'gadot', 'gw', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
+          <t>['khusus', 'cewek', 'jagoan', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['khusus', 'cewek', 'jago', 'podcast', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20021</v>
+        <v>32538</v>
       </c>
       <c r="C73" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>just done call with thank  much for ur time mam and im sorry for the inconvenience hope one</t>
+          <t>tag ah suntik vaksin berani ga loe duluan dr tirta deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['just', 'done', 'call', 'with', 'thank', 'much', 'for', 'ur', 'time', 'mam', 'and', 'im', 'sorry', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
+          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'ga', 'loe', 'duluan', 'dr', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'tidak', 'kamu', 'lebih, dahulu', 'dari', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['just', 'done', 'call', 'with', 'thank', 'much', 'for', 'ur', 'time', 'mam', 'and', 'im', 'sorry', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['just', 'done', 'call', 'with', 'thank', 'much', 'for', 'ur', 'time', 'mam', 'and', 'im', 'sorry', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
+          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'lebih, dahulu', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['tag', 'ah', 'suntik', 'vaksin', 'berani', 'lebih dahulu', 'tirta', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20022</v>
+        <v>32539</v>
       </c>
       <c r="C74" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">gue udah ga ngerti lagi saat ngobrol dengan mereka berdua baik sekali skrg dicokol kpk mungkin gue yg </t>
+          <t>agnez oh agnez deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['gue', 'udah', 'ga', 'ngerti', 'lagi', 'saat', 'ngobrol', 'dengan', 'mereka', 'berdua', 'baik', 'sekali', 'skrg', 'dicokol', 'kpk', 'mungkin', 'gue', 'yg']</t>
+          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['gue', 'udah', 'ngerti', 'ngobrol', 'berdua', 'skrg', 'dicokol', 'kpk', 'gue']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['gue', 'udah', 'ngerti', 'ngobrol', 'dua', 'skrg', 'cokol', 'kpk', 'gue']</t>
+          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['agnez', 'oh', 'agnez', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20023</v>
+        <v>32540</v>
       </c>
       <c r="C75" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tercyduk ustad maher lonte dan polisi via</t>
+          <t>kalau ini panco nya ngeri ngeri sedap but thank  ayah for all the attention he help me lots in my back inju</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['tercyduk', 'ustad', 'maher', 'lonte', 'dan', 'polisi', 'via']</t>
+          <t>['kalau', 'ini', 'panco', 'nya', 'ngeri', 'ngeri', 'sedap', 'but', 'thank', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kalau', 'ini', 'panco', 'nya', 'ngeri', 'ngeri', 'sedap', 'but', 'terima, kasih', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['tercyduk', 'ustad', 'maher', 'lonte', 'polisi', 'via']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['tercyduk', 'ustad', 'maher', 'lonte', 'polisi', 'via']</t>
+          <t>['panco', 'ngeri', 'ngeri', 'sedap', 'but', 'terima, kasih', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['panco', 'ngeri', 'ngeri', 'sedap', 'but', 'terima kasih', 'ayah', 'for', 'all', 'the', 'attention', 'he', 'help', 'me', 'lots', 'in', 'my', 'back', 'inju']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20024</v>
+        <v>32541</v>
       </c>
       <c r="C76" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>bongkar keluarga prabowo dan korupsi di dalamnya via</t>
+          <t>kena azab pingsan di podcast deddy corbuzier podcast  pandji pragiwaksono via</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['bongkar', 'keluarga', 'prabowo', 'dan', 'korupsi', 'di', 'dalamnya', 'via']</t>
+          <t>['kena', 'azab', 'pingsan', 'di', 'podcast', 'deddy', 'corbuzier', 'podcast', 'pandji', 'pragiwaksono', 'via']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kena', 'azab', 'pingsan', 'di', 'podcast', 'deddy', 'corbuzier', 'podcast', 'panji', 'pragiwaksono', 'via']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['bongkar', 'keluarga', 'prabowo', 'korupsi', 'dalamnya', 'via']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['bongkar', 'keluarga', 'prabowo', 'korupsi', 'dalam', 'via']</t>
+          <t>['kena', 'azab', 'pingsan', 'podcast', 'deddy', 'corbuzier', 'podcast', 'panji', 'pragiwaksono', 'via']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['kena', 'azab', 'pingsan', 'podcast', 'deddy', 'corbuzier', 'podcast', 'panji', 'pragiwaksono', 'via']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20025</v>
+        <v>32542</v>
       </c>
       <c r="C77" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>saya kena covid atau saya di covid kan bossman mardigu sontoloyo deddy corbu via</t>
+          <t>hahaha sok pak ernest duluan gue percaya covid ada virus nya tapi gue terakhir ga ap</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['saya', 'kena', 'covid', 'atau', 'saya', 'di', 'covid', 'kan', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
+          <t>['hahaha', 'sok', 'pak', 'ernest', 'duluan', 'gue', 'percaya', 'covid', 'ada', 'virus', 'nya', 'tapi', 'gue', 'terakhir', 'ga', 'ap']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['haha', 'sok', 'pak', 'ernest', 'lebih, dahulu', 'gue', 'percaya', 'covid', 'ada', 'virus', 'nya', 'tapi', 'gue', 'terakhir', 'tidak', 'apa']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['kena', 'covid', 'covid', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['kena', 'covid', 'covid', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
+          <t>['haha', 'sok', 'ernest', 'lebih, dahulu', 'gue', 'percaya', 'covid', 'virus', 'gue']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['haha', 'sok', 'ernest', 'lebih dahulu', 'gue', 'percaya', 'covid', 'virus', 'gue']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20026</v>
+        <v>32543</v>
       </c>
       <c r="C78" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>menantang ibu susi pudjiastuti exclusive</t>
+          <t>siaaaaaap</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['menantang', 'ibu', 'susi', 'pudjiastuti', 'exclusive']</t>
+          <t>['siaaaaaap']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['siaaaaaap']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['menantang', 'susi', 'pudjiastuti', 'exclusive']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['tantang', 'sus', 'pudjiastuti', 'exclusive']</t>
+          <t>['siaaaaaap']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['siaaaaaap']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20027</v>
+        <v>32544</v>
       </c>
       <c r="C79" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>banyak hal yang tidak diketahui ttg korupsi benih lobster selasa ini jam pagi kita buka bukaan</t>
+          <t>saya nunggu dimasakin steak thank you for the dinner last night</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['banyak', 'hal', 'yang', 'tidak', 'diketahui', 'ttg', 'korupsi', 'benih', 'lobster', 'selasa', 'ini', 'jam', 'pagi', 'kita', 'buka', 'bukaan']</t>
+          <t>['saya', 'nunggu', 'dimasakin', 'steak', 'thank', 'you', 'for', 'the', 'dinner', 'last', 'night']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'menunggu', 'dimasakin', 'steak', 'terima, kasih', 'kamu', 'for', 'the', 'dinner', 'last', 'night']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['ttg', 'korupsi', 'benih', 'lobster', 'selasa', 'jam', 'pagi', 'buka', 'bukaan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ttg', 'korupsi', 'benih', 'lobster', 'selasa', 'jam', 'pagi', 'buka', 'buka']</t>
+          <t>['menunggu', 'dimasakin', 'steak', 'terima, kasih', 'for', 'the', 'dinner', 'last', 'night']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tunggu', 'dimasakin', 'steak', 'terima kasih', 'for', 'the', 'dinner', 'last', 'night']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20028</v>
+        <v>32545</v>
       </c>
       <c r="C80" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>indigo faktap via</t>
+          <t>halo fpi nekat stafsus presiden akhirnya bicaradiaz hendropriyono via</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['indigo', 'faktap', 'via']</t>
+          <t>['halo', 'fpi', 'nekat', 'stafsus', 'presiden', 'akhirnya', 'bicaradiaz', 'hendropriyono', 'via']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['halo', 'front, pembela, islam', 'nekat', 'staf, khusus', 'presiden', 'akhirnya', 'bicaradiaz', 'hendro, priyono', 'via']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['indigo', 'faktap', 'via']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['indigo', 'faktap', 'via']</t>
+          <t>['halo', 'front, pembela, islam', 'nekat', 'staf, khusus', 'presiden', 'bicaradiaz', 'hendro, priyono', 'via']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['halo', 'front bela islam', 'nekat', 'staf khusus', 'presiden', 'bicaradiaz', 'hendro priyono', 'via']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20029</v>
+        <v>32546</v>
       </c>
       <c r="C81" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>pemersatu bangsa doyan lah kalian via</t>
+          <t>bule cantik ini bilang muslim itu trris trus mualaf deddy corbuzie via</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['pemersatu', 'bangsa', 'doyan', 'lah', 'kalian', 'via']</t>
+          <t>['bule', 'cantik', 'ini', 'bilang', 'muslim', 'itu', 'trris', 'trus', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['bule', 'cantik', 'ini', 'bilang', 'muslim', 'itu', 'trris', 'terus', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['pemersatu', 'bangsa', 'doyan', 'via']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['satu', 'bangsa', 'doyan', 'via']</t>
+          <t>['bule', 'cantik', 'muslim', 'trris', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['bule', 'cantik', 'muslim', 'trris', 'mualaf', 'deddy', 'corbuzie', 'via']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20030</v>
+        <v>32547</v>
       </c>
       <c r="C82" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>sebelum mabok dilarang uus deddy corbuzier podcast via</t>
+          <t>ngudut bareng gofar hilman deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['sebelum', 'mabok', 'dilarang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['mabok', 'dilarang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['mabok', 'larang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['ngudut', 'bareng', 'gofar', 'hilman', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20031</v>
+        <v>32548</v>
       </c>
       <c r="C83" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>masterchef itu settingan klarifikasi bobon santoso vs chef arnold  via</t>
+          <t>dalam keadaan seperti ini indonesia saatnya kita menahan diri kecuali tuk sebuah kebaikan kalau kita tidak bisa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['masterchef', 'itu', 'settingan', 'klarifikasi', 'bobon', 'santoso', 'vs', 'chef', 'arnold', 'via']</t>
+          <t>['dalam', 'keadaan', 'seperti', 'ini', 'indonesia', 'saatnya', 'kita', 'menahan', 'diri', 'kecuali', 'tuk', 'sebuah', 'kebaikan', 'kalau', 'kita', 'tidak', 'bisa']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['dalam', 'keadaan', 'seperti', 'ini', 'indonesia', 'saatnya', 'kita', 'menahan', 'diri', 'kecuali', 'untuk', 'sebuah', 'kebaikan', 'kalau', 'kita', 'tidak', 'bisa']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['masterchef', 'settingan', 'klarifikasi', 'bobon', 'santoso', 'vs', 'chef', 'arnold', 'via']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['masterchef', 'settingan', 'klarifikasi', 'bobon', 'santoso', 'vs', 'chef', 'arnold', 'via']</t>
+          <t>['indonesia', 'menahan', 'kecuali', 'kebaikan']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['indonesia', 'tahan', 'kecuali', 'baik']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20032</v>
+        <v>32549</v>
       </c>
       <c r="C84" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>mati sekarang hayuk exclusive deddy corbuzier podcast via</t>
+          <t>kalau gw di kasih sama darto milih  atau gal gadot gw langsung embat gal gadot gw ga punya gal gadot deddy corbuzier</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['mati', 'sekarang', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['kalau', 'gw', 'di', 'kasih', 'sama', 'darto', 'milih', 'atau', 'gal', 'gadot', 'gw', 'langsung', 'embat', 'gal', 'gadot', 'gw', 'ga', 'punya', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kalau', 'gue', 'di', 'kasih', 'sama', 'darto', 'memilih', 'atau', 'gal', 'gadot', 'gue', 'langsung', 'embat', 'gal', 'gadot', 'gue', 'tidak', 'punya', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['mati', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 16 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['mati', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['gue', 'kasih', 'darto', 'memilih', 'gal', 'gadot', 'gue', 'langsung', 'embat', 'gal', 'gadot', 'gue', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['gue', 'kasih', 'darto', 'pilih', 'gal', 'gadot', 'gue', 'langsung', 'embat', 'gal', 'gadot', 'gue', 'gal', 'gadot', 'deddy', 'corbuzier']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20033</v>
+        <v>32550</v>
       </c>
       <c r="C85" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>sumpah serem ini mah via</t>
+          <t>just done call with thank  much for ur time mam and im sorry for the inconvenience hope one</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['sumpah', 'serem', 'ini', 'mah', 'via']</t>
+          <t>['just', 'done', 'call', 'with', 'thank', 'much', 'for', 'ur', 'time', 'mam', 'and', 'im', 'sorry', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['just', 'done', 'call', 'dengan', 'terima, kasih', 'much', 'for', 'kamu', 'time', 'mam', 'and', 'im', 'maaf', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['sumpah', 'serem', 'mah', 'via']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['sumpah', 'rem', 'mah', 'via']</t>
+          <t>['just', 'done', 'call', 'terima, kasih', 'much', 'for', 'time', 'mam', 'and', 'im', 'maaf', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['just', 'done', 'call', 'terima kasih', 'much', 'for', 'time', 'mam', 'and', 'im', 'maaf', 'for', 'the', 'inconvenience', 'hope', 'one']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20034</v>
+        <v>32551</v>
       </c>
       <c r="C86" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kenapa media menutup hal ini kita bongkar dr tirta ngamuk dedd via</t>
+          <t xml:space="preserve">gue udah ga ngerti lagi saat ngobrol dengan mereka berdua baik sekali skrg dicokol kpk mungkin gue yg </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kenapa', 'media', 'menutup', 'hal', 'ini', 'kita', 'bongkar', 'dr', 'tirta', 'ngamuk', 'dedd', 'via']</t>
+          <t>['gue', 'udah', 'ga', 'ngerti', 'lagi', 'saat', 'ngobrol', 'dengan', 'mereka', 'berdua', 'baik', 'sekali', 'skrg', 'dicokol', 'kpk', 'mungkin', 'gue', 'yg']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['gue', 'sudah', 'tidak', 'mengerti', 'lagi', 'saat', 'mengobrol', 'dengan', 'mereka', 'berdua', 'baik', 'sekali', 'sekarang', 'dicokol', 'komisi, pemberantasan, korupsi', 'mungkin', 'gue', 'yang']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['media', 'menutup', 'bongkar', 'dr', 'tirta', 'ngamuk', 'dedd', 'via']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['media', 'tutup', 'bongkar', 'dr', 'tirta', 'ngamuk', 'dedd', 'via']</t>
+          <t>['gue', 'mengerti', 'mengobrol', 'berdua', 'dicokol', 'komisi, pemberantasan, korupsi', 'gue']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['gue', 'erti', 'obrol', 'dua', 'cokol', 'komisi berantas korupsi', 'gue']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20035</v>
+        <v>32552</v>
       </c>
       <c r="C87" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>keadilan sak karepmu via</t>
+          <t>tercyduk ustad maher lonte dan polisi via</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['keadilan', 'sak', 'karepmu', 'via']</t>
+          <t>['tercyduk', 'ustad', 'maher', 'lonte', 'dan', 'polisi', 'via']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['terciduk', 'ustad', 'maher', 'lonte', 'dan', 'polisi', 'via']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['keadilan', 'sak', 'karepmu', 'via']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['adil', 'sak', 'karepmu', 'via']</t>
+          <t>['terciduk', 'ustad', 'maher', 'lonte', 'polisi', 'via']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['ciduk', 'ustad', 'maher', 'lonte', 'polisi', 'via']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20036</v>
+        <v>32553</v>
       </c>
       <c r="C88" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ngudut bareng karni ilyas indonesia kok gini deddy corbuzier podcast via</t>
+          <t>bongkar keluarga prabowo dan korupsi di dalamnya via</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'kok', 'gini', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bongkar', 'keluarga', 'prabowo', 'dan', 'korupsi', 'di', 'dalamnya', 'via']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['bongkar', 'keluarga', 'prabowo', 'dan', 'korupsi', 'di', 'dalamnya', 'via']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'gini', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'gin', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['bongkar', 'keluarga', 'prabowo', 'korupsi', 'dalamnya', 'via']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['bongkar', 'keluarga', 'prabowo', 'korupsi', 'dalam', 'via']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20037</v>
+        <v>32554</v>
       </c>
       <c r="C89" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>keadilan sosial ini milik siapa ya bro wishnutama  deddy corbuzier podcast via</t>
+          <t>saya kena covid atau saya di covid kan bossman mardigu sontoloyo deddy corbu via</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['keadilan', 'sosial', 'ini', 'milik', 'siapa', 'ya', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['saya', 'kena', 'covid', 'atau', 'saya', 'di', 'covid', 'kan', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['saya', 'kena', 'covid', 'atau', 'saya', 'di', 'covid', 'kan', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['keadilan', 'sosial', 'milik', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['adil', 'sosial', 'milik', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['kena', 'covid', 'covid', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['kena', 'covid', 'covid', 'bossman', 'mardigu', 'sontoloyo', 'deddy', 'corbu', 'via']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20038</v>
+        <v>32555</v>
       </c>
       <c r="C90" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>nikita mirzani nekat gile deddy corbuzier podcast via</t>
+          <t>menantang ibu susi pudjiastuti exclusive</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['nikita', 'mirzani', 'nekat', 'gile', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['menantang', 'ibu', 'susi', 'pudjiastuti', 'exclusive']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['menantang', 'ibu', 'susi', 'pudjiastuti', 'exclusive']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['nikita', 'mirzani', 'nekat', 'gile', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['nikita', 'mirzani', 'nekat', 'gile', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['menantang', 'susi', 'pudjiastuti', 'exclusive']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['tantang', 'sus', 'pudjiastuti', 'exclusive']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20039</v>
+        <v>32556</v>
       </c>
       <c r="C91" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>gue</t>
+          <t>banyak hal yang tidak diketahui ttg korupsi benih lobster selasa ini jam pagi kita buka bukaan</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['gue']</t>
+          <t>['banyak', 'hal', 'yang', 'tidak', 'diketahui', 'ttg', 'korupsi', 'benih', 'lobster', 'selasa', 'ini', 'jam', 'pagi', 'kita', 'buka', 'bukaan']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['banyak', 'hal', 'yang', 'tidak', 'diketahui', 'tentang', 'korupsi', 'benih', 'lobster', 'selasa', 'ini', 'jam', 'pagi', 'kita', 'buka', 'bukaan']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['gue']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['gue']</t>
+          <t>['korupsi', 'benih', 'lobster', 'selasa', 'jam', 'pagi', 'buka', 'bukaan']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['korupsi', 'benih', 'lobster', 'selasa', 'jam', 'pagi', 'buka', 'buka']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20040</v>
+        <v>32557</v>
       </c>
       <c r="C92" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>mantap hrs jrx dan ite jubir presiden bicara fadjroel rahman dedd via</t>
+          <t>indigo faktap via</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['mantap', 'hrs', 'jrx', 'dan', 'ite', 'jubir', 'presiden', 'bicara', 'fadjroel', 'rahman', 'dedd', 'via']</t>
+          <t>['indigo', 'faktap', 'via']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['indigo', 'faktap', 'via']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['mantap', 'hrs', 'jrx', 'ite', 'jubir', 'presiden', 'bicara', 'fadjroel', 'rahman', 'dedd', 'via']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['mantap', 'hrs', 'jrx', 'ite', 'jubir', 'presiden', 'bicara', 'fadjroel', 'rahman', 'dedd', 'via']</t>
+          <t>['indigo', 'faktap', 'via']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['indigo', 'faktap', 'via']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20041</v>
+        <v>32558</v>
       </c>
       <c r="C93" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>heboh babe haikal minta maaf klarifikasi deddy corbuzier podcast via</t>
+          <t>pemersatu bangsa doyan lah kalian via</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['heboh', 'babe', 'haikal', 'minta', 'maaf', 'klarifikasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['pemersatu', 'bangsa', 'doyan', 'lah', 'kalian', 'via']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['pemersatu', 'bangsa', 'suka', 'lah', 'kalian', 'via']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['heboh', 'babe', 'haikal', 'maaf', 'klarifikasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['heboh', 'babe', 'haikal', 'maaf', 'klarifikasi', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['pemersatu', 'bangsa', 'suka', 'via']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['satu', 'bangsa', 'suka', 'via']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20042</v>
+        <v>32559</v>
       </c>
       <c r="C94" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>video detik sh deddy corbuzier podcast via</t>
+          <t>sebelum mabok dilarang uus deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['video', 'detik', 'sh', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['sebelum', 'mabok', 'dilarang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sebelum', 'mabuk', 'dilarang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['video', 'detik', 'sh', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['video', 'detik', 'sh', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['mabuk', 'dilarang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['mabuk', 'larang', 'uus', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20043</v>
+        <v>32560</v>
       </c>
       <c r="C95" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>dokter kok kpopdeddy corbuzier podcast via</t>
+          <t>masterchef itu settingan klarifikasi bobon santoso vs chef arnold  via</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['dokter', 'kok', 'kpopdeddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['masterchef', 'itu', 'settingan', 'klarifikasi', 'bobon', 'santoso', 'vs', 'chef', 'arnold', 'via']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['masterchef', 'itu', 'setingan', 'klarifikasi', 'bobon', 'santoso', 'lawan', 'chef', 'arnold', 'via']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['dokter', 'kpopdeddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['dokter', 'kpopdeddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['masterchef', 'setingan', 'klarifikasi', 'bobon', 'santoso', 'lawan', 'chef', 'arnold', 'via']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['masterchef', 'ting', 'klarifikasi', 'bobon', 'santoso', 'lawan', 'chef', 'arnold', 'via']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20044</v>
+        <v>32561</v>
       </c>
       <c r="C96" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>chef juna mereka org bohong deddy corbuzier podcast via ilmu semuapat</t>
+          <t>mati sekarang hayuk exclusive deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['chef', 'juna', 'mereka', 'org', 'bohong', 'deddy', 'corbuzier', 'podcast', 'via', 'ilmu', 'semuapat']</t>
+          <t>['mati', 'sekarang', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['mati', 'sekarang', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['chef', 'juna', 'org', 'bohong', 'deddy', 'corbuzier', 'podcast', 'via', 'ilmu', 'semuapat']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['chef', 'juna', 'org', 'bohong', 'deddy', 'corbuzier', 'podcast', 'via', 'ilmu', 'semuapat']</t>
+          <t>['mati', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['mati', 'hayuk', 'exclusive', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20045</v>
+        <v>32562</v>
       </c>
       <c r="C97" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>sacred riana podcast berhantu deddy corbuzier podcast via</t>
+          <t>sumpah serem ini mah via</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sacred', 'riana', 'podcast', 'berhantu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['sumpah', 'serem', 'ini', 'mah', 'via']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['sumpah', 'seram', 'ini', 'adalah', 'via']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['sacred', 'riana', 'podcast', 'berhantu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['sacred', 'riana', 'podcast', 'hantu', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['sumpah', 'seram', 'via']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['sumpah', 'seram', 'via']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20046</v>
+        <v>32563</v>
       </c>
       <c r="C98" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>malih pesan pedas tuk ade londok deddy corbuzier podcast via</t>
+          <t>kenapa media menutup hal ini kita bongkar dr tirta ngamuk dedd via</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['malih', 'pesan', 'pedas', 'tuk', 'ade', 'londok', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['kenapa', 'media', 'menutup', 'hal', 'ini', 'kita', 'bongkar', 'dr', 'tirta', 'ngamuk', 'dedd', 'via']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kenapa', 'media', 'menutup', 'hal', 'ini', 'kita', 'bongkar', 'dari', 'tirta', 'mengamuk', 'dedd', 'via']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['malih', 'pesan', 'pedas', 'tuk', 'ade', 'londok', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['malih', 'pesan', 'pedas', 'tuk', 'ade', 'londok', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['media', 'menutup', 'bongkar', 'tirta', 'mengamuk', 'dedd', 'via']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['media', 'tutup', 'bongkar', 'tirta', 'amuk', 'dedd', 'via']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20047</v>
+        <v>32564</v>
       </c>
       <c r="C99" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>danilla riyadi manusia manusia penilai manusia via</t>
+          <t>keadilan sak karepmu via</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['danilla', 'riyadi', 'manusia', 'manusia', 'penilai', 'manusia', 'via']</t>
+          <t>['keadilan', 'sak', 'karepmu', 'via']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
+          <t>['keadilan', 'sak', 'terserah, kamu', 'via']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['danilla', 'riyadi', 'manusia', 'manusia', 'penilai', 'manusia', 'via']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['danilla', 'riyadi', 'manusia', 'manusia', 'nilai', 'manusia', 'via']</t>
+          <t>['keadilan', 'sak', 'terserah, kamu', 'via']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['adil', 'sak', 'serah kamu', 'via']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20048</v>
+        <v>32565</v>
       </c>
       <c r="C100" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ilmu selingkuh deddy corbuzier podcast via</t>
+          <t>ngudut bareng karni ilyas indonesia kok gini deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['ilmu', 'selingkuh', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'kok', 'gini', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'kok', 'begini', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['ilmu', 'selingkuh', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ilmu', 'selingkuh', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['ngudut', 'bareng', 'karni', 'ilyas', 'indonesia', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20049</v>
+        <v>32566</v>
       </c>
       <c r="C101" t="n">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>haji bolot gue gak kenal covid deddy corbuzier podcast via</t>
+          <t>keadilan sosial ini milik siapa ya bro wishnutama  deddy corbuzier podcast via</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['haji', 'bolot', 'gue', 'gak', 'kenal', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['keadilan', 'sosial', 'ini', 'milik', 'siapa', 'ya', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['keadilan', 'sosial', 'ini', 'milik', 'siapa', 'ya', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['haji', 'bolot', 'gue', 'kenal', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['haji', 'bolot', 'gue', 'kenal', 'covid', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+          <t>['keadilan', 'sosial', 'milik', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['adil', 'sosial', 'milik', 'bro', 'wishnutama', 'deddy', 'corbuzier', 'podcast', 'via']</t>
         </is>
       </c>
     </row>
